--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$145</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5065" uniqueCount="288">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T21:28:52+00:00</t>
+    <t>2021-11-17T22:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -874,7 +874,7 @@
     <t>parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters}
+    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-patient-business-parameters}
 </t>
   </si>
   <si>
@@ -885,13 +885,6 @@
   </si>
   <si>
     <t>The parameters that may be used are defined by the OperationDefinition resource.</t>
-  </si>
-  <si>
-    <t>parametersRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-request-patient-business-parameters}
-</t>
   </si>
   <si>
     <t>operationOutcome</t>
@@ -1247,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM177"/>
+  <dimension ref="A1:AM145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1257,7 +1250,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.2109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -13669,7 +13662,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>84</v>
@@ -14349,13 +14342,13 @@
         <v>277</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -14417,13 +14410,13 @@
         <v>75</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>75</v>
@@ -17187,13 +17180,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
         <v>75</v>
       </c>
@@ -17205,7 +17196,7 @@
         <v>84</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>75</v>
@@ -17214,16 +17205,20 @@
         <v>85</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>173</v>
+        <v>284</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
       </c>
@@ -17271,19 +17266,19 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>75</v>
@@ -17295,3543 +17290,11 @@
         <v>75</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="146" hidden="true">
-      <c r="A146" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P146" s="2"/>
-      <c r="Q146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="147" hidden="true">
-      <c r="A147" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N147" s="2"/>
-      <c r="O147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P147" s="2"/>
-      <c r="Q147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="148" hidden="true">
-      <c r="A148" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F148" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P148" s="2"/>
-      <c r="Q148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="149" hidden="true">
-      <c r="A149" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P149" s="2"/>
-      <c r="Q149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="150" hidden="true">
-      <c r="A150" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P150" s="2"/>
-      <c r="Q150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="151" hidden="true">
-      <c r="A151" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N151" s="2"/>
-      <c r="O151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P151" s="2"/>
-      <c r="Q151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="152" hidden="true">
-      <c r="A152" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P152" s="2"/>
-      <c r="Q152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" hidden="true">
-      <c r="A153" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F153" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P153" s="2"/>
-      <c r="Q153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="154" hidden="true">
-      <c r="A154" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N154" s="2"/>
-      <c r="O154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P154" s="2"/>
-      <c r="Q154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM154" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="155" hidden="true">
-      <c r="A155" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P155" s="2"/>
-      <c r="Q155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" hidden="true">
-      <c r="A156" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N156" s="2"/>
-      <c r="O156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P156" s="2"/>
-      <c r="Q156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" hidden="true">
-      <c r="A157" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N157" s="2"/>
-      <c r="O157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P157" s="2"/>
-      <c r="Q157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="158" hidden="true">
-      <c r="A158" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P158" s="2"/>
-      <c r="Q158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="159" hidden="true">
-      <c r="A159" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P159" s="2"/>
-      <c r="Q159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="160" hidden="true">
-      <c r="A160" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N160" s="2"/>
-      <c r="O160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="161" hidden="true">
-      <c r="A161" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="162" hidden="true">
-      <c r="A162" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P162" s="2"/>
-      <c r="Q162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM162" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="163" hidden="true">
-      <c r="A163" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N163" s="2"/>
-      <c r="O163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P163" s="2"/>
-      <c r="Q163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="164" hidden="true">
-      <c r="A164" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F164" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P164" s="2"/>
-      <c r="Q164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG164" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI164" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="165" hidden="true">
-      <c r="A165" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F165" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P165" s="2"/>
-      <c r="Q165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG165" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI165" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="166" hidden="true">
-      <c r="A166" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F166" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J166" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P166" s="2"/>
-      <c r="Q166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM166" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="167" hidden="true">
-      <c r="A167" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F167" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J167" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K167" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P167" s="2"/>
-      <c r="Q167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG167" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI167" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="168" hidden="true">
-      <c r="A168" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B168" s="2"/>
-      <c r="C168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F168" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J168" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P168" s="2"/>
-      <c r="Q168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AI168" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM168" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="169" hidden="true">
-      <c r="A169" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B169" s="2"/>
-      <c r="C169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F169" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P169" s="2"/>
-      <c r="Q169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="170" hidden="true">
-      <c r="A170" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J170" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K170" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N170" s="2"/>
-      <c r="O170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P170" s="2"/>
-      <c r="Q170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI170" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK170" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM170" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="171" hidden="true">
-      <c r="A171" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B171" s="2"/>
-      <c r="C171" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F171" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H171" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I171" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J171" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P171" s="2"/>
-      <c r="Q171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="172" hidden="true">
-      <c r="A172" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B172" s="2"/>
-      <c r="C172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I172" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J172" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P172" s="2"/>
-      <c r="Q172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI172" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM172" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="173" hidden="true">
-      <c r="A173" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B173" s="2"/>
-      <c r="C173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F173" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P173" s="2"/>
-      <c r="Q173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM173" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="174" hidden="true">
-      <c r="A174" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B174" s="2"/>
-      <c r="C174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F174" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N174" s="2"/>
-      <c r="O174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P174" s="2"/>
-      <c r="Q174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="175" hidden="true">
-      <c r="A175" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F175" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N175" s="2"/>
-      <c r="O175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P175" s="2"/>
-      <c r="Q175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM175" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="176" hidden="true">
-      <c r="A176" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F176" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N176" s="2"/>
-      <c r="O176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P176" s="2"/>
-      <c r="Q176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM176" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="177" hidden="true">
-      <c r="A177" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F177" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J177" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P177" s="2"/>
-      <c r="Q177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM177" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM177">
+  <autoFilter ref="A1:AM145">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20841,7 +17304,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI176">
+  <conditionalFormatting sqref="A2:AI144">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5065" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T22:00:02+00:00</t>
+    <t>2021-11-26T18:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -559,7 +559,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -844,63 +844,40 @@
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
   </si>
   <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubjectOfCare Client Resident
+    <t>parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-patient}
+    <t>Operation Request or Response</t>
+  </si>
+  <si>
+    <t>This resource is a non-persisted resource used to pass information into and back from an [operation](http://hl7.org/fhir/R4/operations.html). It has no other use, and there is no RESTful endpoint associated with it.</t>
+  </si>
+  <si>
+    <t>The parameters that may be used are defined by the OperationDefinition resource.</t>
+  </si>
+  <si>
+    <t>operationOutcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OperationOutcome {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-operation-outcome}
 </t>
   </si>
   <si>
-    <t>Information about an individual or animal receiving health care services</t>
-  </si>
-  <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+    <t>Information about the success/failure of an action</t>
+  </si>
+  <si>
+    <t>A collection of error, warning, or information messages that result from a system action.</t>
+  </si>
+  <si>
+    <t>Can result from the failure of a REST call or be part of the response message returned from a request message.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
-    <t>Patient[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument.recordTarget.patientRole</t>
-  </si>
-  <si>
-    <t>parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-patient-business-parameters}
-</t>
-  </si>
-  <si>
-    <t>Operation Request or Response</t>
-  </si>
-  <si>
-    <t>This resource is a non-persisted resource used to pass information into and back from an [operation](http://hl7.org/fhir/R4/operations.html). It has no other use, and there is no RESTful endpoint associated with it.</t>
-  </si>
-  <si>
-    <t>The parameters that may be used are defined by the OperationDefinition resource.</t>
-  </si>
-  <si>
-    <t>operationOutcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OperationOutcome {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-operation-outcome}
-</t>
-  </si>
-  <si>
-    <t>Information about the success/failure of an action</t>
-  </si>
-  <si>
-    <t>A collection of error, warning, or information messages that result from a system action.</t>
-  </si>
-  <si>
-    <t>Can result from the failure of a REST call or be part of the response message returned from a request message.</t>
   </si>
   <si>
     <t>Grouping is handled through multiple repetitions from whatever context references the outcomes (no specific grouper required)</t>
@@ -1240,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM145"/>
+  <dimension ref="A1:AM113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1251,7 +1228,7 @@
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -7262,7 +7239,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7281,15 +7258,17 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>75</v>
@@ -7350,16 +7329,16 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -10125,14 +10104,14 @@
         <v>171</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>84</v>
@@ -10809,16 +10788,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -10880,13 +10859,13 @@
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>75</v>
+        <v>273</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>75</v>
@@ -13650,13 +13629,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>75</v>
       </c>
@@ -13668,7 +13645,7 @@
         <v>84</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>75</v>
@@ -13677,16 +13654,20 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>75</v>
       </c>
@@ -13734,19 +13715,19 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>75</v>
@@ -13758,3543 +13739,11 @@
         <v>75</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F131" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F137" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P137" s="2"/>
-      <c r="Q137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P138" s="2"/>
-      <c r="Q138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P139" s="2"/>
-      <c r="Q139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F140" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P140" s="2"/>
-      <c r="Q140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="141" hidden="true">
-      <c r="A141" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P141" s="2"/>
-      <c r="Q141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="142" hidden="true">
-      <c r="A142" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="143" hidden="true">
-      <c r="A143" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F143" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N143" s="2"/>
-      <c r="O143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P143" s="2"/>
-      <c r="Q143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="144" hidden="true">
-      <c r="A144" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N144" s="2"/>
-      <c r="O144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="145" hidden="true">
-      <c r="A145" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM145" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM145">
+  <autoFilter ref="A1:AM113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17304,7 +13753,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI144">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T18:59:02+00:00</t>
+    <t>2021-11-29T18:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:20:37+00:00</t>
+    <t>2021-11-29T18:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:24:57+00:00</t>
+    <t>2021-11-29T18:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:48:09+00:00</t>
+    <t>2021-11-30T19:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -572,7 +572,7 @@
 </t>
   </si>
   <si>
-    <t>The specific bundle entries that are needed when the Client Registry is responding to a revise or merge request.</t>
+    <t>The specific bundle entries that are needed when the Client Registry is responding to a merge request.</t>
   </si>
   <si>
     <t>open</t>
@@ -1253,7 +1253,7 @@
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="104.6640625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="96.06640625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T19:25:31+00:00</t>
+    <t>2021-12-02T21:15:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="276">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T21:15:02+00:00</t>
+    <t>2021-12-09T00:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -568,7 +568,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource}
+    <t xml:space="preserve">type:resource}
 </t>
   </si>
   <si>
@@ -863,24 +863,8 @@
     <t>operationOutcome</t>
   </si>
   <si>
-    <t xml:space="preserve">OperationOutcome {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-operation-outcome}
+    <t xml:space="preserve">OperationOutcome
 </t>
-  </si>
-  <si>
-    <t>Information about the success/failure of an action</t>
-  </si>
-  <si>
-    <t>A collection of error, warning, or information messages that result from a system action.</t>
-  </si>
-  <si>
-    <t>Can result from the failure of a REST call or be part of the response message returned from a request message.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
-    <t>Grouping is handled through multiple repetitions from whatever context references the outcomes (no specific grouper required)</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1262,7 +1246,7 @@
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="119.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -10785,20 +10769,18 @@
         <v>75</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>269</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>75</v>
@@ -10859,13 +10841,13 @@
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>75</v>
@@ -13631,7 +13613,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13654,19 +13636,19 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>75</v>
@@ -13715,7 +13697,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:02:58+00:00</t>
+    <t>2021-12-10T22:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="277">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -845,6 +845,9 @@
   </si>
   <si>
     <t>parameters</t>
+  </si>
+  <si>
+    <t>Metadata parameters</t>
   </si>
   <si>
     <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters}
@@ -6583,7 +6586,7 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>174</v>
@@ -7242,16 +7245,16 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -10088,7 +10091,7 @@
         <v>171</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10772,7 +10775,7 @@
         <v>85</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>191</v>
@@ -13613,7 +13616,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13636,19 +13639,19 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>75</v>
@@ -13697,7 +13700,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="278">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BCMergeResponseBundle</t>
+    <t>MergeResponseBundle</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -864,6 +864,9 @@
   </si>
   <si>
     <t>operationOutcome</t>
+  </si>
+  <si>
+    <t>Messages and codes returned by HCIM.</t>
   </si>
   <si>
     <t xml:space="preserve">OperationOutcome
@@ -10098,7 +10101,7 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>84</v>
@@ -10116,7 +10119,7 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>174</v>
@@ -10775,7 +10778,7 @@
         <v>85</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>191</v>
@@ -13616,7 +13619,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13639,19 +13642,19 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>75</v>
@@ -13700,7 +13703,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,10 +847,10 @@
     <t>parameters</t>
   </si>
   <si>
-    <t>Metadata parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters}
+    <t>Metadata out parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters-out}
 </t>
   </si>
   <si>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1216,44 +1216,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.21484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="96.06640625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="279">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -477,6 +477,10 @@
   </si>
   <si>
     <t>Bundle.link.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2507,13 +2511,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2564,7 +2568,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2582,7 +2586,7 @@
         <v>75</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -2593,11 +2597,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2616,16 +2620,16 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2675,7 +2679,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2687,13 +2691,13 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2704,11 +2708,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2727,19 +2731,19 @@
         <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -2788,7 +2792,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2800,7 +2804,7 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -2817,7 +2821,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2840,13 +2844,13 @@
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2897,7 +2901,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>84</v>
@@ -2926,7 +2930,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2952,10 +2956,10 @@
         <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3006,7 +3010,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>84</v>
@@ -3035,7 +3039,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3043,7 +3047,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>77</v>
@@ -3061,10 +3065,10 @@
         <v>142</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3103,19 +3107,19 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3127,7 +3131,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
@@ -3144,7 +3148,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3167,13 +3171,13 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3224,7 +3228,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3242,7 +3246,7 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3253,11 +3257,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3276,16 +3280,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3335,7 +3339,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3347,13 +3351,13 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3364,11 +3368,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3387,19 +3391,19 @@
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -3448,7 +3452,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -3460,7 +3464,7 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -3477,7 +3481,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3503,10 +3507,10 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3557,7 +3561,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3586,7 +3590,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3612,13 +3616,13 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3668,7 +3672,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3697,7 +3701,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3720,13 +3724,13 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3777,7 +3781,7 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3806,7 +3810,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3832,10 +3836,10 @@
         <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3886,7 +3890,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -3895,7 +3899,7 @@
         <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
@@ -3915,7 +3919,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3938,13 +3942,13 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3995,7 +3999,7 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4013,7 +4017,7 @@
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4024,11 +4028,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4047,16 +4051,16 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4106,7 +4110,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4118,13 +4122,13 @@
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4135,11 +4139,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4158,19 +4162,19 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4219,7 +4223,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4231,7 +4235,7 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
@@ -4248,7 +4252,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4274,13 +4278,13 @@
         <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4309,10 +4313,10 @@
         <v>124</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4330,7 +4334,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4359,7 +4363,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4382,16 +4386,16 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4441,7 +4445,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4470,7 +4474,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4496,10 +4500,10 @@
         <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4550,7 +4554,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4559,7 +4563,7 @@
         <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4579,7 +4583,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4602,13 +4606,13 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4659,7 +4663,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -4677,7 +4681,7 @@
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4688,11 +4692,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4711,16 +4715,16 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4770,7 +4774,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4782,13 +4786,13 @@
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4799,11 +4803,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4822,19 +4826,19 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -4883,7 +4887,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -4895,7 +4899,7 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
@@ -4912,7 +4916,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4938,10 +4942,10 @@
         <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4971,10 +4975,10 @@
         <v>124</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
@@ -4992,7 +4996,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>84</v>
@@ -5021,7 +5025,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5047,13 +5051,13 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5103,7 +5107,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>84</v>
@@ -5132,7 +5136,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5155,13 +5159,13 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5212,7 +5216,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5241,7 +5245,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5267,10 +5271,10 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5321,7 +5325,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5350,7 +5354,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5373,13 +5377,13 @@
         <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5430,7 +5434,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5459,7 +5463,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5482,13 +5486,13 @@
         <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5539,7 +5543,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -5568,7 +5572,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5594,10 +5598,10 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5648,7 +5652,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5657,7 +5661,7 @@
         <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -5677,7 +5681,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5700,13 +5704,13 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5757,7 +5761,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5775,7 +5779,7 @@
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5786,11 +5790,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5809,16 +5813,16 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5868,7 +5872,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -5880,13 +5884,13 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5897,11 +5901,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5920,19 +5924,19 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>75</v>
@@ -5981,7 +5985,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -5993,7 +5997,7 @@
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
@@ -6010,7 +6014,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6033,13 +6037,13 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6090,7 +6094,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>84</v>
@@ -6119,7 +6123,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6145,10 +6149,10 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6199,7 +6203,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6228,7 +6232,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6251,16 +6255,16 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6310,7 +6314,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6339,7 +6343,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6365,13 +6369,13 @@
         <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6421,7 +6425,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -6450,7 +6454,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6473,16 +6477,16 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6532,7 +6536,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -6561,10 +6565,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
@@ -6589,10 +6593,10 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6643,7 +6647,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -6655,7 +6659,7 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -6672,7 +6676,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6695,13 +6699,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6752,7 +6756,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -6770,7 +6774,7 @@
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -6781,11 +6785,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6804,16 +6808,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6863,7 +6867,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -6875,13 +6879,13 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -6892,11 +6896,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6915,19 +6919,19 @@
         <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -6976,7 +6980,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -6988,7 +6992,7 @@
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -7005,7 +7009,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7031,10 +7035,10 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7085,7 +7089,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7114,7 +7118,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7140,13 +7144,13 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7196,7 +7200,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7225,7 +7229,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7248,16 +7252,16 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7307,7 +7311,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7322,10 +7326,10 @@
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7336,7 +7340,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7362,10 +7366,10 @@
         <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7416,7 +7420,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -7425,7 +7429,7 @@
         <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -7445,7 +7449,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7468,13 +7472,13 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7525,7 +7529,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -7543,7 +7547,7 @@
         <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -7554,11 +7558,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7577,16 +7581,16 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7636,7 +7640,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -7648,13 +7652,13 @@
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -7665,11 +7669,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7688,19 +7692,19 @@
         <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>75</v>
@@ -7749,7 +7753,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -7761,7 +7765,7 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
@@ -7778,7 +7782,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7804,13 +7808,13 @@
         <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7839,10 +7843,10 @@
         <v>124</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -7860,7 +7864,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -7889,7 +7893,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7912,16 +7916,16 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7971,7 +7975,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8000,7 +8004,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8026,10 +8030,10 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8080,7 +8084,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8089,7 +8093,7 @@
         <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8109,7 +8113,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8132,13 +8136,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8189,7 +8193,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -8207,7 +8211,7 @@
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8218,11 +8222,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8241,16 +8245,16 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8300,7 +8304,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -8312,13 +8316,13 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8329,11 +8333,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8352,19 +8356,19 @@
         <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -8413,7 +8417,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -8425,7 +8429,7 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
@@ -8442,7 +8446,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8468,10 +8472,10 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8501,10 +8505,10 @@
         <v>124</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -8522,7 +8526,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>84</v>
@@ -8551,7 +8555,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8577,13 +8581,13 @@
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8633,7 +8637,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>84</v>
@@ -8662,7 +8666,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8685,13 +8689,13 @@
         <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8742,7 +8746,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -8771,7 +8775,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8797,10 +8801,10 @@
         <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8851,7 +8855,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -8880,7 +8884,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8903,13 +8907,13 @@
         <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8960,7 +8964,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -8989,7 +8993,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9012,13 +9016,13 @@
         <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9069,7 +9073,7 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9098,7 +9102,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9124,10 +9128,10 @@
         <v>142</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9178,7 +9182,7 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -9187,7 +9191,7 @@
         <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
@@ -9207,7 +9211,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9230,13 +9234,13 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9287,7 +9291,7 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -9305,7 +9309,7 @@
         <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -9316,11 +9320,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9339,16 +9343,16 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9398,7 +9402,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -9410,13 +9414,13 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -9427,11 +9431,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9450,19 +9454,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -9511,7 +9515,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -9523,7 +9527,7 @@
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>75</v>
@@ -9540,7 +9544,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9563,13 +9567,13 @@
         <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9620,7 +9624,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>84</v>
@@ -9649,7 +9653,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9675,10 +9679,10 @@
         <v>98</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9729,7 +9733,7 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -9758,7 +9762,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9781,16 +9785,16 @@
         <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9840,7 +9844,7 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -9869,7 +9873,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9895,13 +9899,13 @@
         <v>129</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9951,7 +9955,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -9980,7 +9984,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10003,16 +10007,16 @@
         <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10062,7 +10066,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -10091,10 +10095,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10119,10 +10123,10 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10173,7 +10177,7 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -10185,7 +10189,7 @@
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
@@ -10202,7 +10206,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10225,13 +10229,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10282,7 +10286,7 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -10300,7 +10304,7 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -10311,11 +10315,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10334,16 +10338,16 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10393,7 +10397,7 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -10405,13 +10409,13 @@
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -10422,11 +10426,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10445,19 +10449,19 @@
         <v>85</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>75</v>
@@ -10506,7 +10510,7 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -10518,7 +10522,7 @@
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>75</v>
@@ -10535,7 +10539,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10561,10 +10565,10 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10615,7 +10619,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -10644,7 +10648,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10670,13 +10674,13 @@
         <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10726,7 +10730,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -10755,7 +10759,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10778,13 +10782,13 @@
         <v>85</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10835,7 +10839,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -10864,7 +10868,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10890,10 +10894,10 @@
         <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10944,7 +10948,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -10953,7 +10957,7 @@
         <v>84</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>96</v>
@@ -10973,7 +10977,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10996,13 +11000,13 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11053,7 +11057,7 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -11071,7 +11075,7 @@
         <v>75</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>75</v>
@@ -11082,11 +11086,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11105,16 +11109,16 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11164,7 +11168,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -11176,13 +11180,13 @@
         <v>75</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11193,11 +11197,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11216,19 +11220,19 @@
         <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>75</v>
@@ -11277,7 +11281,7 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -11289,7 +11293,7 @@
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>75</v>
@@ -11306,7 +11310,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11332,13 +11336,13 @@
         <v>104</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11367,10 +11371,10 @@
         <v>124</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>75</v>
@@ -11388,7 +11392,7 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
@@ -11417,7 +11421,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11440,16 +11444,16 @@
         <v>85</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11499,7 +11503,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -11528,7 +11532,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11554,10 +11558,10 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11608,7 +11612,7 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
@@ -11617,7 +11621,7 @@
         <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>96</v>
@@ -11637,7 +11641,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11660,13 +11664,13 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11717,7 +11721,7 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
@@ -11735,7 +11739,7 @@
         <v>75</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>75</v>
@@ -11746,11 +11750,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11769,16 +11773,16 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11828,7 +11832,7 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
@@ -11840,13 +11844,13 @@
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>75</v>
@@ -11857,11 +11861,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11880,19 +11884,19 @@
         <v>85</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>75</v>
@@ -11941,7 +11945,7 @@
         <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>
@@ -11953,7 +11957,7 @@
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>75</v>
@@ -11970,7 +11974,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11996,10 +12000,10 @@
         <v>104</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12029,10 +12033,10 @@
         <v>124</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>75</v>
@@ -12050,7 +12054,7 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>84</v>
@@ -12079,7 +12083,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12105,13 +12109,13 @@
         <v>98</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12161,7 +12165,7 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>84</v>
@@ -12190,7 +12194,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12213,13 +12217,13 @@
         <v>85</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12270,7 +12274,7 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -12299,7 +12303,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12325,10 +12329,10 @@
         <v>129</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12379,7 +12383,7 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>76</v>
@@ -12408,7 +12412,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12431,13 +12435,13 @@
         <v>85</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12488,7 +12492,7 @@
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
@@ -12517,7 +12521,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12540,13 +12544,13 @@
         <v>85</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12597,7 +12601,7 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
@@ -12626,7 +12630,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12652,10 +12656,10 @@
         <v>142</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12706,7 +12710,7 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
@@ -12715,7 +12719,7 @@
         <v>84</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>96</v>
@@ -12735,7 +12739,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12758,13 +12762,13 @@
         <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -12815,7 +12819,7 @@
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>76</v>
@@ -12833,7 +12837,7 @@
         <v>75</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>75</v>
@@ -12844,11 +12848,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -12867,16 +12871,16 @@
         <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -12926,7 +12930,7 @@
         <v>75</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>76</v>
@@ -12938,13 +12942,13 @@
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>75</v>
@@ -12955,11 +12959,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -12978,19 +12982,19 @@
         <v>85</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>75</v>
@@ -13039,7 +13043,7 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>76</v>
@@ -13051,7 +13055,7 @@
         <v>75</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>75</v>
@@ -13068,7 +13072,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13091,13 +13095,13 @@
         <v>85</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13148,7 +13152,7 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>84</v>
@@ -13177,7 +13181,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13203,10 +13207,10 @@
         <v>98</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13257,7 +13261,7 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
@@ -13286,7 +13290,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13309,16 +13313,16 @@
         <v>85</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13368,7 +13372,7 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
@@ -13397,7 +13401,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13423,13 +13427,13 @@
         <v>129</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13479,7 +13483,7 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
@@ -13508,7 +13512,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13531,16 +13535,16 @@
         <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13590,7 +13594,7 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
@@ -13619,7 +13623,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13642,19 +13646,19 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>75</v>
@@ -13703,7 +13707,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3050,7 +3050,7 @@
         <v>173</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="278">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
-  </si>
-  <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -582,10 +578,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
     <t>Bundle.entry.id</t>
   </si>
   <si>
@@ -852,6 +844,10 @@
   </si>
   <si>
     <t>Metadata out parameters</t>
+  </si>
+  <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters-out}
@@ -1474,16 +1470,16 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>75</v>
@@ -1491,7 +1487,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1502,28 +1498,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1573,13 +1569,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1602,7 +1598,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1613,25 +1609,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1682,19 +1678,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1711,7 +1707,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1722,28 +1718,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1793,19 +1789,19 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -1822,7 +1818,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1833,7 +1829,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1845,16 +1841,16 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1880,43 +1876,43 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
@@ -1933,7 +1929,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1944,28 +1940,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2015,19 +2011,19 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -2036,15 +2032,15 @@
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2052,31 +2048,31 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F8" t="s" s="2">
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2084,78 +2080,78 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s" s="2">
+      <c r="X8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="X8" t="s" s="2">
+      <c r="Y8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y8" t="s" s="2">
+      <c r="Z8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2166,28 +2162,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2237,19 +2233,19 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
@@ -2258,15 +2254,15 @@
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2277,28 +2273,28 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2348,19 +2344,19 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -2377,7 +2373,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2397,19 +2393,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2459,7 +2455,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2471,7 +2467,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -2488,7 +2484,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2499,7 +2495,7 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>75</v>
@@ -2511,13 +2507,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2568,25 +2564,25 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -2597,11 +2593,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2620,16 +2616,16 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2679,7 +2675,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2691,13 +2687,13 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2708,11 +2704,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2725,25 +2721,25 @@
         <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -2792,7 +2788,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2804,13 +2800,13 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -2821,7 +2817,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2829,28 +2825,28 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2901,19 +2897,19 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>75</v>
@@ -2930,7 +2926,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2938,28 +2934,28 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3010,19 +3006,19 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>75</v>
@@ -3039,7 +3035,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3047,28 +3043,28 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3107,19 +3103,19 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AB17" t="s" s="2">
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3131,7 +3127,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
@@ -3148,7 +3144,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3159,7 +3155,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>75</v>
@@ -3171,13 +3167,13 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3228,25 +3224,25 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3257,11 +3253,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3280,16 +3276,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3339,7 +3335,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3351,13 +3347,13 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3368,11 +3364,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3385,25 +3381,25 @@
         <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -3452,7 +3448,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -3464,13 +3460,13 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3481,7 +3477,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3501,16 +3497,16 @@
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3561,7 +3557,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3573,7 +3569,7 @@
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>75</v>
@@ -3590,7 +3586,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3598,31 +3594,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="H22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3672,19 +3668,19 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>75</v>
@@ -3701,7 +3697,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3709,28 +3705,28 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3781,13 +3777,13 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>75</v>
@@ -3810,7 +3806,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3821,25 +3817,25 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3890,19 +3886,19 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>75</v>
@@ -3919,7 +3915,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3930,7 +3926,7 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>75</v>
@@ -3942,13 +3938,13 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3999,25 +3995,25 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4028,11 +4024,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4051,16 +4047,16 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4110,7 +4106,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4122,13 +4118,13 @@
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4139,11 +4135,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4156,25 +4152,25 @@
         <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4223,7 +4219,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4235,13 +4231,13 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4252,7 +4248,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4263,28 +4259,28 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4310,13 +4306,13 @@
         <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4334,19 +4330,19 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>75</v>
@@ -4363,7 +4359,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4374,28 +4370,28 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4445,19 +4441,19 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>75</v>
@@ -4474,7 +4470,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4485,25 +4481,25 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4554,19 +4550,19 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>75</v>
@@ -4583,7 +4579,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4594,7 +4590,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>75</v>
@@ -4606,13 +4602,13 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4663,25 +4659,25 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4692,11 +4688,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4715,16 +4711,16 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4774,7 +4770,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4786,13 +4782,13 @@
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4803,11 +4799,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4820,25 +4816,25 @@
         <v>75</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -4887,7 +4883,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -4899,13 +4895,13 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4916,7 +4912,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4924,28 +4920,28 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4972,13 +4968,13 @@
         <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
@@ -4996,19 +4992,19 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>75</v>
@@ -5025,7 +5021,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5033,31 +5029,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5107,19 +5103,19 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>75</v>
@@ -5136,7 +5132,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5147,25 +5143,25 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5216,19 +5212,19 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>75</v>
@@ -5245,7 +5241,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5256,25 +5252,25 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5325,19 +5321,19 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>75</v>
@@ -5354,7 +5350,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5365,25 +5361,25 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5434,19 +5430,19 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>75</v>
@@ -5463,7 +5459,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5474,25 +5470,25 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5543,19 +5539,19 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>75</v>
@@ -5572,7 +5568,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5583,25 +5579,25 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5652,19 +5648,19 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>75</v>
@@ -5681,7 +5677,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5692,7 +5688,7 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>75</v>
@@ -5704,13 +5700,13 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5761,25 +5757,25 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5790,11 +5786,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5813,16 +5809,16 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5872,7 +5868,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -5884,13 +5880,13 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5901,11 +5897,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5918,25 +5914,25 @@
         <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>75</v>
@@ -5985,7 +5981,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -5997,13 +5993,13 @@
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6014,7 +6010,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6022,28 +6018,28 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6094,19 +6090,19 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>75</v>
@@ -6123,7 +6119,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6134,25 +6130,25 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6203,19 +6199,19 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>75</v>
@@ -6232,7 +6228,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6243,28 +6239,28 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6314,19 +6310,19 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>75</v>
@@ -6343,7 +6339,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6354,28 +6350,28 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6425,19 +6421,19 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>75</v>
@@ -6454,7 +6450,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6465,28 +6461,28 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6536,13 +6532,13 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>75</v>
@@ -6565,38 +6561,38 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="H49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6647,7 +6643,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -6659,7 +6655,7 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -6676,7 +6672,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6687,7 +6683,7 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>75</v>
@@ -6699,13 +6695,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6756,25 +6752,25 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -6785,11 +6781,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6808,16 +6804,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6867,7 +6863,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -6879,13 +6875,13 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -6896,11 +6892,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6913,25 +6909,25 @@
         <v>75</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -6980,7 +6976,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -6992,13 +6988,13 @@
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
@@ -7009,7 +7005,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7029,16 +7025,16 @@
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7089,7 +7085,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7101,7 +7097,7 @@
         <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>75</v>
@@ -7118,7 +7114,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7129,28 +7125,28 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7200,19 +7196,19 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>75</v>
@@ -7229,7 +7225,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7240,7 +7236,7 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>75</v>
@@ -7252,16 +7248,16 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7311,13 +7307,13 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>75</v>
@@ -7326,10 +7322,10 @@
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7340,7 +7336,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7351,25 +7347,25 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7420,19 +7416,19 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>75</v>
@@ -7449,7 +7445,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7460,7 +7456,7 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>75</v>
@@ -7472,13 +7468,13 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7529,25 +7525,25 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -7558,11 +7554,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7581,16 +7577,16 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7640,7 +7636,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -7652,13 +7648,13 @@
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -7669,11 +7665,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7686,25 +7682,25 @@
         <v>75</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>75</v>
@@ -7753,7 +7749,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -7765,13 +7761,13 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -7782,7 +7778,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7793,28 +7789,28 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7840,13 +7836,13 @@
         <v>75</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -7864,19 +7860,19 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>75</v>
@@ -7893,7 +7889,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7904,28 +7900,28 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J61" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7975,19 +7971,19 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>75</v>
@@ -8004,7 +8000,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8015,25 +8011,25 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8084,19 +8080,19 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>75</v>
@@ -8113,7 +8109,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8124,7 +8120,7 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>75</v>
@@ -8136,13 +8132,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8193,25 +8189,25 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8222,11 +8218,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8245,16 +8241,16 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8304,7 +8300,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -8316,13 +8312,13 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8333,11 +8329,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8350,25 +8346,25 @@
         <v>75</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -8417,7 +8413,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -8429,13 +8425,13 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
@@ -8446,7 +8442,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8454,28 +8450,28 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8502,13 +8498,13 @@
         <v>75</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -8526,19 +8522,19 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>75</v>
@@ -8555,7 +8551,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8563,31 +8559,31 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J67" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8637,19 +8633,19 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>75</v>
@@ -8666,7 +8662,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8677,25 +8673,25 @@
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8746,19 +8742,19 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>75</v>
@@ -8775,7 +8771,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8786,25 +8782,25 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8855,19 +8851,19 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>75</v>
@@ -8884,7 +8880,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8895,25 +8891,25 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8964,19 +8960,19 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>75</v>
@@ -8993,7 +8989,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9004,25 +9000,25 @@
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9073,19 +9069,19 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>75</v>
@@ -9102,7 +9098,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9113,25 +9109,25 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9182,19 +9178,19 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>75</v>
@@ -9211,7 +9207,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9222,7 +9218,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>75</v>
@@ -9234,13 +9230,13 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9291,25 +9287,25 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -9320,11 +9316,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9343,16 +9339,16 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9402,7 +9398,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -9414,13 +9410,13 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -9431,11 +9427,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9448,25 +9444,25 @@
         <v>75</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -9515,7 +9511,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -9527,13 +9523,13 @@
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>75</v>
@@ -9544,7 +9540,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9552,28 +9548,28 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9624,19 +9620,19 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>75</v>
@@ -9653,7 +9649,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9664,25 +9660,25 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9733,19 +9729,19 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>75</v>
@@ -9762,7 +9758,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9773,28 +9769,28 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9844,19 +9840,19 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>75</v>
@@ -9873,7 +9869,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9884,28 +9880,28 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9955,19 +9951,19 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>75</v>
@@ -9984,7 +9980,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9995,28 +9991,28 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10066,13 +10062,13 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>75</v>
@@ -10095,38 +10091,38 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G81" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="H81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10177,7 +10173,7 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -10189,7 +10185,7 @@
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
@@ -10206,7 +10202,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10217,7 +10213,7 @@
         <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>75</v>
@@ -10229,13 +10225,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10286,25 +10282,25 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -10315,11 +10311,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10338,16 +10334,16 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10397,7 +10393,7 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -10409,13 +10405,13 @@
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -10426,11 +10422,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10443,25 +10439,25 @@
         <v>75</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>75</v>
@@ -10510,7 +10506,7 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -10522,13 +10518,13 @@
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>75</v>
@@ -10539,7 +10535,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10559,16 +10555,16 @@
         <v>75</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10619,7 +10615,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -10631,7 +10627,7 @@
         <v>75</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>75</v>
@@ -10648,7 +10644,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10659,28 +10655,28 @@
         <v>76</v>
       </c>
       <c r="F86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J86" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10730,19 +10726,19 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>75</v>
@@ -10759,7 +10755,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10770,25 +10766,25 @@
         <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J87" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10839,13 +10835,13 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
@@ -10868,7 +10864,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10879,25 +10875,25 @@
         <v>76</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10948,19 +10944,19 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>75</v>
@@ -10977,7 +10973,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10988,7 +10984,7 @@
         <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>75</v>
@@ -11000,13 +10996,13 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11057,25 +11053,25 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>75</v>
@@ -11086,11 +11082,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11109,16 +11105,16 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11168,7 +11164,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -11180,13 +11176,13 @@
         <v>75</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11197,11 +11193,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11214,25 +11210,25 @@
         <v>75</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>75</v>
@@ -11281,7 +11277,7 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -11293,13 +11289,13 @@
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>75</v>
@@ -11310,7 +11306,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11321,28 +11317,28 @@
         <v>76</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11368,13 +11364,13 @@
         <v>75</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>75</v>
@@ -11392,19 +11388,19 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>75</v>
@@ -11421,7 +11417,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11432,28 +11428,28 @@
         <v>76</v>
       </c>
       <c r="F93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J93" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11503,19 +11499,19 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>75</v>
@@ -11532,7 +11528,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11543,25 +11539,25 @@
         <v>76</v>
       </c>
       <c r="F94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I94" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J94" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11612,19 +11608,19 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>75</v>
@@ -11641,7 +11637,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11652,7 +11648,7 @@
         <v>76</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>75</v>
@@ -11664,13 +11660,13 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11721,25 +11717,25 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>75</v>
@@ -11750,11 +11746,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11773,16 +11769,16 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="L96" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11832,7 +11828,7 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
@@ -11844,13 +11840,13 @@
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>75</v>
@@ -11861,11 +11857,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11878,25 +11874,25 @@
         <v>75</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>75</v>
@@ -11945,7 +11941,7 @@
         <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>
@@ -11957,13 +11953,13 @@
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>75</v>
@@ -11974,7 +11970,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11982,28 +11978,28 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I98" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J98" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12030,13 +12026,13 @@
         <v>75</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>75</v>
@@ -12054,19 +12050,19 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>75</v>
@@ -12083,7 +12079,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12091,31 +12087,31 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I99" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F99" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J99" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12165,19 +12161,19 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>75</v>
@@ -12194,7 +12190,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12205,25 +12201,25 @@
         <v>76</v>
       </c>
       <c r="F100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J100" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12274,19 +12270,19 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>75</v>
@@ -12303,7 +12299,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12314,25 +12310,25 @@
         <v>76</v>
       </c>
       <c r="F101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J101" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12383,19 +12379,19 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>75</v>
@@ -12412,7 +12408,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12423,25 +12419,25 @@
         <v>76</v>
       </c>
       <c r="F102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I102" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J102" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12492,19 +12488,19 @@
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>75</v>
@@ -12521,7 +12517,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12532,25 +12528,25 @@
         <v>76</v>
       </c>
       <c r="F103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I103" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J103" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12601,19 +12597,19 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>75</v>
@@ -12630,7 +12626,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12641,25 +12637,25 @@
         <v>76</v>
       </c>
       <c r="F104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J104" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12710,19 +12706,19 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>75</v>
@@ -12739,7 +12735,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12750,7 +12746,7 @@
         <v>76</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>75</v>
@@ -12762,13 +12758,13 @@
         <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K105" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K105" t="s" s="2">
+      <c r="L105" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -12819,25 +12815,25 @@
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK105" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>75</v>
@@ -12848,11 +12844,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -12871,16 +12867,16 @@
         <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K106" t="s" s="2">
+      <c r="L106" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -12930,7 +12926,7 @@
         <v>75</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>76</v>
@@ -12942,13 +12938,13 @@
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>75</v>
@@ -12959,11 +12955,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -12976,25 +12972,25 @@
         <v>75</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>75</v>
@@ -13043,7 +13039,7 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>76</v>
@@ -13055,13 +13051,13 @@
         <v>75</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>75</v>
@@ -13072,7 +13068,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13080,28 +13076,28 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I108" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F108" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J108" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13152,19 +13148,19 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>75</v>
@@ -13181,7 +13177,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13192,25 +13188,25 @@
         <v>76</v>
       </c>
       <c r="F109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I109" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J109" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13261,19 +13257,19 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>75</v>
@@ -13290,7 +13286,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13301,28 +13297,28 @@
         <v>76</v>
       </c>
       <c r="F110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I110" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J110" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13372,19 +13368,19 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>75</v>
@@ -13401,7 +13397,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13412,28 +13408,28 @@
         <v>76</v>
       </c>
       <c r="F111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I111" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J111" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13483,19 +13479,19 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>75</v>
@@ -13512,7 +13508,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13523,28 +13519,28 @@
         <v>76</v>
       </c>
       <c r="F112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J112" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13594,13 +13590,13 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>75</v>
@@ -13623,7 +13619,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13634,31 +13630,31 @@
         <v>76</v>
       </c>
       <c r="F113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I113" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J113" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>75</v>
@@ -13707,19 +13703,19 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Contains a collection of resources</t>
@@ -1602,13 +1606,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1674,13 +1678,13 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>76</v>
@@ -1688,10 +1692,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1702,7 +1706,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1711,19 +1715,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1773,13 +1777,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1802,10 +1806,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1816,7 +1820,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -1825,16 +1829,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1885,19 +1889,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -1914,10 +1918,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1928,28 +1932,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1999,19 +2003,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2028,10 +2032,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2042,7 +2046,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2054,16 +2058,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2089,13 +2093,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2113,19 +2117,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2142,10 +2146,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2156,7 +2160,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2165,19 +2169,19 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2227,19 +2231,19 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2248,18 +2252,18 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2267,31 +2271,31 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2299,7 +2303,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -2317,13 +2321,13 @@
         <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>76</v>
@@ -2341,19 +2345,19 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2365,15 +2369,15 @@
         <v>76</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2384,7 +2388,7 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>76</v>
@@ -2393,19 +2397,19 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2455,19 +2459,19 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2476,18 +2480,18 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2498,7 +2502,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2507,19 +2511,19 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2569,19 +2573,19 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2598,10 +2602,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2621,19 +2625,19 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2683,7 +2687,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2695,7 +2699,7 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -2712,10 +2716,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2726,7 +2730,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2738,13 +2742,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2795,13 +2799,13 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
@@ -2813,7 +2817,7 @@
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -2824,14 +2828,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2850,16 +2854,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2909,7 +2913,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2921,13 +2925,13 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -2938,14 +2942,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2958,25 +2962,25 @@
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3025,7 +3029,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3037,13 +3041,13 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3054,10 +3058,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3065,10 +3069,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3077,16 +3081,16 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3137,19 +3141,19 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3166,10 +3170,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3177,10 +3181,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3189,16 +3193,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3249,19 +3253,19 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
@@ -3278,10 +3282,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3289,10 +3293,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3301,16 +3305,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3349,19 +3353,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3390,10 +3394,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3404,7 +3408,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3416,13 +3420,13 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3473,13 +3477,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3491,7 +3495,7 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3502,14 +3506,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3528,16 +3532,16 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3587,7 +3591,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3599,13 +3603,13 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3616,14 +3620,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3636,25 +3640,25 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3703,7 +3707,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3715,13 +3719,13 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3732,10 +3736,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3755,16 +3759,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3815,7 +3819,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3827,7 +3831,7 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3844,10 +3848,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3855,31 +3859,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3929,19 +3933,19 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -3958,10 +3962,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3969,28 +3973,28 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4041,13 +4045,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -4070,10 +4074,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4084,7 +4088,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4093,16 +4097,16 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4153,19 +4157,19 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
@@ -4182,10 +4186,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4196,7 +4200,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4208,13 +4212,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4265,13 +4269,13 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
@@ -4283,7 +4287,7 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4294,14 +4298,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4320,16 +4324,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4379,7 +4383,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4391,13 +4395,13 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4408,14 +4412,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4428,25 +4432,25 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4495,7 +4499,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4507,13 +4511,13 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4524,10 +4528,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4538,7 +4542,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4547,19 +4551,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4585,13 +4589,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4609,19 +4613,19 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -4638,10 +4642,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4652,7 +4656,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4661,19 +4665,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4723,19 +4727,19 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4752,10 +4756,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4766,25 +4770,25 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4835,19 +4839,19 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4864,10 +4868,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4878,7 +4882,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4890,13 +4894,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4947,13 +4951,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -4965,7 +4969,7 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4976,14 +4980,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5002,16 +5006,16 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5061,7 +5065,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5073,13 +5077,13 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5090,14 +5094,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5110,25 +5114,25 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5177,7 +5181,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5189,13 +5193,13 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5206,10 +5210,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5217,10 +5221,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5229,16 +5233,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5265,13 +5269,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5289,19 +5293,19 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
@@ -5318,10 +5322,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5329,10 +5333,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5341,19 +5345,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5403,19 +5407,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5432,10 +5436,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5446,7 +5450,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5455,16 +5459,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5515,19 +5519,19 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
@@ -5544,10 +5548,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5558,7 +5562,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5567,16 +5571,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5627,19 +5631,19 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5656,10 +5660,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5670,7 +5674,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5679,16 +5683,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5739,19 +5743,19 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5768,10 +5772,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5782,7 +5786,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5791,16 +5795,16 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5851,19 +5855,19 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5880,10 +5884,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5894,7 +5898,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5903,16 +5907,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5963,19 +5967,19 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5992,10 +5996,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6006,7 +6010,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6018,13 +6022,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6075,13 +6079,13 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
@@ -6093,7 +6097,7 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6104,14 +6108,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6130,16 +6134,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6189,7 +6193,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6201,13 +6205,13 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6218,14 +6222,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6238,25 +6242,25 @@
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6305,7 +6309,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6317,13 +6321,13 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6334,10 +6338,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6345,10 +6349,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6357,16 +6361,16 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6417,19 +6421,19 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6446,10 +6450,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6460,7 +6464,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6469,16 +6473,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6529,19 +6533,19 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -6558,10 +6562,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6572,7 +6576,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6581,19 +6585,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6643,19 +6647,19 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -6672,10 +6676,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6686,7 +6690,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6695,19 +6699,19 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6757,19 +6761,19 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6786,10 +6790,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6800,7 +6804,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6809,19 +6813,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6871,13 +6875,13 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
@@ -6900,41 +6904,41 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6985,7 +6989,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6997,7 +7001,7 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -7014,10 +7018,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7028,7 +7032,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7040,13 +7044,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7097,13 +7101,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7115,7 +7119,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7126,14 +7130,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7152,16 +7156,16 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7211,7 +7215,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7223,13 +7227,13 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7240,14 +7244,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7260,25 +7264,25 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7327,7 +7331,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7339,13 +7343,13 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7356,10 +7360,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7379,16 +7383,16 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7439,7 +7443,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7451,7 +7455,7 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
@@ -7468,10 +7472,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7482,7 +7486,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7491,19 +7495,19 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7553,19 +7557,19 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -7582,10 +7586,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7596,7 +7600,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7608,16 +7612,16 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7667,13 +7671,13 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
@@ -7682,10 +7686,10 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7696,10 +7700,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7710,7 +7714,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7719,16 +7723,16 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7779,19 +7783,19 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -7808,10 +7812,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7822,7 +7826,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7834,13 +7838,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7891,13 +7895,13 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
@@ -7909,7 +7913,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -7920,14 +7924,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7946,16 +7950,16 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8005,7 +8009,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8017,13 +8021,13 @@
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8034,14 +8038,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8054,25 +8058,25 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8121,7 +8125,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8133,13 +8137,13 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8150,10 +8154,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8164,7 +8168,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8173,19 +8177,19 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8211,13 +8215,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8235,19 +8239,19 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8264,10 +8268,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8278,7 +8282,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8287,19 +8291,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8349,19 +8353,19 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -8378,10 +8382,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8392,7 +8396,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8401,16 +8405,16 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8461,19 +8465,19 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -8490,10 +8494,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8504,7 +8508,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8516,13 +8520,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8573,13 +8577,13 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
@@ -8591,7 +8595,7 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8602,14 +8606,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8628,16 +8632,16 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8687,7 +8691,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8699,13 +8703,13 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -8716,14 +8720,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8736,25 +8740,25 @@
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8803,7 +8807,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -8815,13 +8819,13 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -8832,10 +8836,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8843,10 +8847,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8855,16 +8859,16 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8891,13 +8895,13 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -8915,19 +8919,19 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
@@ -8944,10 +8948,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8955,10 +8959,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -8967,19 +8971,19 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9029,19 +9033,19 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -9058,10 +9062,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9072,7 +9076,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9081,16 +9085,16 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9141,19 +9145,19 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -9170,10 +9174,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9184,7 +9188,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9193,16 +9197,16 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9253,19 +9257,19 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -9282,10 +9286,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9296,7 +9300,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -9305,16 +9309,16 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9365,19 +9369,19 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>76</v>
@@ -9394,10 +9398,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9408,7 +9412,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9417,16 +9421,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9477,19 +9481,19 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
@@ -9506,10 +9510,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9520,7 +9524,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9529,16 +9533,16 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9589,19 +9593,19 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -9618,10 +9622,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9632,7 +9636,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9644,13 +9648,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9701,13 +9705,13 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
@@ -9719,7 +9723,7 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -9730,14 +9734,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9756,16 +9760,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9815,7 +9819,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -9827,13 +9831,13 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -9844,14 +9848,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9864,25 +9868,25 @@
         <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -9931,7 +9935,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -9943,13 +9947,13 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -9960,10 +9964,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9971,10 +9975,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -9983,16 +9987,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10043,19 +10047,19 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>76</v>
@@ -10072,10 +10076,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10086,7 +10090,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10095,16 +10099,16 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10155,19 +10159,19 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>76</v>
@@ -10184,10 +10188,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10198,7 +10202,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10207,19 +10211,19 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10269,19 +10273,19 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -10298,10 +10302,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10312,7 +10316,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10321,19 +10325,19 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10383,19 +10387,19 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -10412,10 +10416,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10426,7 +10430,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10435,19 +10439,19 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10497,13 +10501,13 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>76</v>
@@ -10526,41 +10530,41 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10611,7 +10615,7 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -10623,7 +10627,7 @@
         <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>76</v>
@@ -10640,10 +10644,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10654,7 +10658,7 @@
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -10666,13 +10670,13 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10723,13 +10727,13 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>76</v>
@@ -10741,7 +10745,7 @@
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -10752,14 +10756,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10778,16 +10782,16 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10837,7 +10841,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -10849,13 +10853,13 @@
         <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -10866,14 +10870,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -10886,25 +10890,25 @@
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -10953,7 +10957,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -10965,13 +10969,13 @@
         <v>76</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -10982,10 +10986,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11005,16 +11009,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11065,7 +11069,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11077,7 +11081,7 @@
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>76</v>
@@ -11094,10 +11098,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11108,7 +11112,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -11117,19 +11121,19 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11179,19 +11183,19 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>76</v>
@@ -11208,10 +11212,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11222,7 +11226,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -11231,16 +11235,16 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11291,13 +11295,13 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>76</v>
@@ -11320,10 +11324,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11334,7 +11338,7 @@
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -11343,16 +11347,16 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11403,19 +11407,19 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
@@ -11432,10 +11436,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11446,7 +11450,7 @@
         <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
@@ -11458,13 +11462,13 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11515,13 +11519,13 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>76</v>
@@ -11533,7 +11537,7 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -11544,14 +11548,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11570,16 +11574,16 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -11629,7 +11633,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -11641,13 +11645,13 @@
         <v>76</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -11658,14 +11662,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11678,25 +11682,25 @@
         <v>76</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>76</v>
@@ -11745,7 +11749,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -11757,13 +11761,13 @@
         <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -11774,10 +11778,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11788,7 +11792,7 @@
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
@@ -11797,19 +11801,19 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11835,13 +11839,13 @@
         <v>76</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>76</v>
@@ -11859,19 +11863,19 @@
         <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>76</v>
@@ -11888,10 +11892,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11902,7 +11906,7 @@
         <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>76</v>
@@ -11911,19 +11915,19 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11973,19 +11977,19 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>76</v>
@@ -12002,10 +12006,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12016,7 +12020,7 @@
         <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>76</v>
@@ -12025,16 +12029,16 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12085,19 +12089,19 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>76</v>
@@ -12114,10 +12118,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12128,7 +12132,7 @@
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
@@ -12140,13 +12144,13 @@
         <v>76</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12197,13 +12201,13 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>76</v>
@@ -12215,7 +12219,7 @@
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -12226,14 +12230,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12252,16 +12256,16 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12311,7 +12315,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -12323,13 +12327,13 @@
         <v>76</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -12340,14 +12344,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -12360,25 +12364,25 @@
         <v>76</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>76</v>
@@ -12427,7 +12431,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -12439,13 +12443,13 @@
         <v>76</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
@@ -12456,10 +12460,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12467,10 +12471,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>76</v>
@@ -12479,16 +12483,16 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12515,13 +12519,13 @@
         <v>76</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>76</v>
@@ -12539,19 +12543,19 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>76</v>
@@ -12568,10 +12572,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12579,10 +12583,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>76</v>
@@ -12591,19 +12595,19 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12653,19 +12657,19 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>76</v>
@@ -12682,10 +12686,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12696,7 +12700,7 @@
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>76</v>
@@ -12705,16 +12709,16 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12765,19 +12769,19 @@
         <v>76</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>76</v>
@@ -12794,10 +12798,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12808,7 +12812,7 @@
         <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>76</v>
@@ -12817,16 +12821,16 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12877,19 +12881,19 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>76</v>
@@ -12906,10 +12910,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12920,7 +12924,7 @@
         <v>77</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>76</v>
@@ -12929,16 +12933,16 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12989,19 +12993,19 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>76</v>
@@ -13018,10 +13022,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13032,7 +13036,7 @@
         <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>76</v>
@@ -13041,16 +13045,16 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13101,19 +13105,19 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>76</v>
@@ -13130,10 +13134,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13144,7 +13148,7 @@
         <v>77</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>76</v>
@@ -13153,16 +13157,16 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13213,19 +13217,19 @@
         <v>76</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>76</v>
@@ -13242,10 +13246,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13256,7 +13260,7 @@
         <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>76</v>
@@ -13268,13 +13272,13 @@
         <v>76</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13325,13 +13329,13 @@
         <v>76</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>76</v>
@@ -13343,7 +13347,7 @@
         <v>76</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -13354,14 +13358,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13380,16 +13384,16 @@
         <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13439,7 +13443,7 @@
         <v>76</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -13451,13 +13455,13 @@
         <v>76</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -13468,14 +13472,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13488,25 +13492,25 @@
         <v>76</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>76</v>
@@ -13555,7 +13559,7 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -13567,13 +13571,13 @@
         <v>76</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -13584,10 +13588,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13595,10 +13599,10 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>76</v>
@@ -13607,16 +13611,16 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13667,19 +13671,19 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>76</v>
@@ -13696,10 +13700,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13710,7 +13714,7 @@
         <v>77</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>76</v>
@@ -13719,16 +13723,16 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13779,19 +13783,19 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>76</v>
@@ -13808,10 +13812,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13822,7 +13826,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>76</v>
@@ -13831,19 +13835,19 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13893,19 +13897,19 @@
         <v>76</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>76</v>
@@ -13922,10 +13926,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13936,7 +13940,7 @@
         <v>77</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>76</v>
@@ -13945,19 +13949,19 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14007,19 +14011,19 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>76</v>
@@ -14036,10 +14040,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14050,7 +14054,7 @@
         <v>77</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>76</v>
@@ -14059,19 +14063,19 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14121,13 +14125,13 @@
         <v>76</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>76</v>
@@ -14150,10 +14154,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14164,7 +14168,7 @@
         <v>77</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>76</v>
@@ -14173,22 +14177,22 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>76</v>
@@ -14237,19 +14241,19 @@
         <v>76</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11012,7 +11012,7 @@
         <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>184</v>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -10769,7 +10769,7 @@
         <v>46</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>144</v>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -10769,7 +10769,7 @@
         <v>46</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>144</v>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
+  </si>
+  <si>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -465,6 +469,10 @@
     <t>open</t>
   </si>
   <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
     <t>Bundle.entry.id</t>
   </si>
   <si>
@@ -734,10 +742,6 @@
   </si>
   <si>
     <t>Metadata out parameters</t>
-  </si>
-  <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry:parameters.id</t>
@@ -1432,16 +1436,16 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>36</v>
@@ -1449,10 +1453,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1463,7 +1467,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1472,19 +1476,19 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1534,13 +1538,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1563,10 +1567,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1577,7 +1581,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>36</v>
@@ -1586,16 +1590,16 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1646,19 +1650,19 @@
         <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -1675,10 +1679,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1689,28 +1693,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1760,19 +1764,19 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -1789,10 +1793,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1803,7 +1807,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1815,16 +1819,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1850,13 +1854,13 @@
         <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -1874,19 +1878,19 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>36</v>
@@ -1903,10 +1907,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1917,7 +1921,7 @@
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>36</v>
@@ -1926,19 +1930,19 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1988,19 +1992,19 @@
         <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>36</v>
@@ -2009,18 +2013,18 @@
         <v>36</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2028,31 +2032,31 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2060,7 +2064,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>36</v>
@@ -2078,13 +2082,13 @@
         <v>36</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>36</v>
@@ -2102,19 +2106,19 @@
         <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>36</v>
@@ -2126,15 +2130,15 @@
         <v>36</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2145,7 +2149,7 @@
         <v>37</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>36</v>
@@ -2154,19 +2158,19 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2216,19 +2220,19 @@
         <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>36</v>
@@ -2237,18 +2241,18 @@
         <v>36</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2259,7 +2263,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>36</v>
@@ -2268,19 +2272,19 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2330,19 +2334,19 @@
         <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>36</v>
@@ -2359,10 +2363,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2382,19 +2386,19 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2444,7 +2448,7 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -2456,7 +2460,7 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>36</v>
@@ -2473,10 +2477,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2487,7 +2491,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -2499,13 +2503,13 @@
         <v>36</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2556,13 +2560,13 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>36</v>
@@ -2574,7 +2578,7 @@
         <v>36</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>36</v>
@@ -2585,14 +2589,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2611,16 +2615,16 @@
         <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2670,7 +2674,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -2682,13 +2686,13 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>36</v>
@@ -2699,14 +2703,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2719,25 +2723,25 @@
         <v>36</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>36</v>
@@ -2786,7 +2790,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -2798,13 +2802,13 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>36</v>
@@ -2815,10 +2819,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2826,10 +2830,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>36</v>
@@ -2838,16 +2842,16 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2898,19 +2902,19 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>36</v>
@@ -2927,10 +2931,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2938,10 +2942,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -2950,16 +2954,16 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3010,19 +3014,19 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>36</v>
@@ -3039,10 +3043,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3050,10 +3054,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>36</v>
@@ -3062,16 +3066,16 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3110,19 +3114,19 @@
         <v>36</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -3134,7 +3138,7 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>36</v>
@@ -3151,10 +3155,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3165,7 +3169,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>36</v>
@@ -3177,13 +3181,13 @@
         <v>36</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3234,13 +3238,13 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>36</v>
@@ -3252,7 +3256,7 @@
         <v>36</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>36</v>
@@ -3263,14 +3267,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3289,16 +3293,16 @@
         <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3348,7 +3352,7 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -3360,13 +3364,13 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>36</v>
@@ -3377,14 +3381,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3397,25 +3401,25 @@
         <v>36</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>36</v>
@@ -3464,7 +3468,7 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
@@ -3476,13 +3480,13 @@
         <v>36</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>36</v>
@@ -3493,10 +3497,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3516,16 +3520,16 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3576,7 +3580,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -3588,7 +3592,7 @@
         <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>36</v>
@@ -3605,10 +3609,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3616,31 +3620,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3690,19 +3694,19 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>36</v>
@@ -3719,10 +3723,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3730,28 +3734,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3802,13 +3806,13 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>36</v>
@@ -3831,10 +3835,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3845,7 +3849,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
@@ -3854,16 +3858,16 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3914,19 +3918,19 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>36</v>
@@ -3943,10 +3947,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3957,7 +3961,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>36</v>
@@ -3969,13 +3973,13 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4026,13 +4030,13 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>36</v>
@@ -4044,7 +4048,7 @@
         <v>36</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>36</v>
@@ -4055,14 +4059,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4081,16 +4085,16 @@
         <v>36</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4140,7 +4144,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -4152,13 +4156,13 @@
         <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>36</v>
@@ -4169,14 +4173,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4189,25 +4193,25 @@
         <v>36</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>36</v>
@@ -4256,7 +4260,7 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
@@ -4268,13 +4272,13 @@
         <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>36</v>
@@ -4285,10 +4289,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4299,7 +4303,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>36</v>
@@ -4308,19 +4312,19 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4346,13 +4350,13 @@
         <v>36</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>36</v>
@@ -4370,19 +4374,19 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>36</v>
@@ -4399,10 +4403,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4413,7 +4417,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>36</v>
@@ -4422,19 +4426,19 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4484,19 +4488,19 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>36</v>
@@ -4513,10 +4517,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4527,25 +4531,25 @@
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4596,19 +4600,19 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>36</v>
@@ -4625,10 +4629,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4639,7 +4643,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>36</v>
@@ -4651,13 +4655,13 @@
         <v>36</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4708,13 +4712,13 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>36</v>
@@ -4726,7 +4730,7 @@
         <v>36</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>36</v>
@@ -4737,14 +4741,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4763,16 +4767,16 @@
         <v>36</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4822,7 +4826,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -4834,13 +4838,13 @@
         <v>36</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>36</v>
@@ -4851,14 +4855,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4871,25 +4875,25 @@
         <v>36</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>36</v>
@@ -4938,7 +4942,7 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
@@ -4950,13 +4954,13 @@
         <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>36</v>
@@ -4967,10 +4971,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4978,10 +4982,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>36</v>
@@ -4990,16 +4994,16 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5026,13 +5030,13 @@
         <v>36</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>36</v>
@@ -5050,19 +5054,19 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>36</v>
@@ -5079,10 +5083,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5090,10 +5094,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>36</v>
@@ -5102,19 +5106,19 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5164,19 +5168,19 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>36</v>
@@ -5193,10 +5197,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5207,7 +5211,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>36</v>
@@ -5216,16 +5220,16 @@
         <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5276,19 +5280,19 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>36</v>
@@ -5305,10 +5309,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5319,7 +5323,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>36</v>
@@ -5328,16 +5332,16 @@
         <v>36</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5388,19 +5392,19 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>36</v>
@@ -5417,10 +5421,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5431,7 +5435,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>36</v>
@@ -5440,16 +5444,16 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5500,19 +5504,19 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>36</v>
@@ -5529,10 +5533,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5543,7 +5547,7 @@
         <v>37</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>36</v>
@@ -5552,16 +5556,16 @@
         <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5612,19 +5616,19 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>36</v>
@@ -5641,10 +5645,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5655,7 +5659,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>36</v>
@@ -5664,16 +5668,16 @@
         <v>36</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5724,19 +5728,19 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>36</v>
@@ -5753,10 +5757,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5767,7 +5771,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>36</v>
@@ -5779,13 +5783,13 @@
         <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5836,13 +5840,13 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>36</v>
@@ -5854,7 +5858,7 @@
         <v>36</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>36</v>
@@ -5865,14 +5869,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5891,16 +5895,16 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5950,7 +5954,7 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
@@ -5962,13 +5966,13 @@
         <v>36</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>36</v>
@@ -5979,14 +5983,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5999,25 +6003,25 @@
         <v>36</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>36</v>
@@ -6066,7 +6070,7 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -6078,13 +6082,13 @@
         <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>36</v>
@@ -6095,10 +6099,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6106,10 +6110,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>36</v>
@@ -6118,16 +6122,16 @@
         <v>36</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6178,19 +6182,19 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>36</v>
@@ -6207,10 +6211,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6221,7 +6225,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>36</v>
@@ -6230,16 +6234,16 @@
         <v>36</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6290,19 +6294,19 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>36</v>
@@ -6319,10 +6323,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6333,7 +6337,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>36</v>
@@ -6342,19 +6346,19 @@
         <v>36</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6404,19 +6408,19 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>36</v>
@@ -6433,10 +6437,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6447,7 +6451,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>36</v>
@@ -6456,19 +6460,19 @@
         <v>36</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6518,19 +6522,19 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>36</v>
@@ -6547,10 +6551,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6561,7 +6565,7 @@
         <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>36</v>
@@ -6570,19 +6574,19 @@
         <v>36</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6632,13 +6636,13 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>36</v>
@@ -6661,41 +6665,41 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6746,7 +6750,7 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
@@ -6758,7 +6762,7 @@
         <v>36</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>36</v>
@@ -6775,10 +6779,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6789,7 +6793,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>36</v>
@@ -6801,13 +6805,13 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6858,13 +6862,13 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>36</v>
@@ -6876,7 +6880,7 @@
         <v>36</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>36</v>
@@ -6887,14 +6891,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6913,16 +6917,16 @@
         <v>36</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6972,7 +6976,7 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -6984,13 +6988,13 @@
         <v>36</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>36</v>
@@ -7001,14 +7005,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7021,25 +7025,25 @@
         <v>36</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>36</v>
@@ -7088,7 +7092,7 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
@@ -7100,13 +7104,13 @@
         <v>36</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>36</v>
@@ -7117,10 +7121,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7140,16 +7144,16 @@
         <v>36</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7200,7 +7204,7 @@
         <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
@@ -7212,7 +7216,7 @@
         <v>36</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>36</v>
@@ -7229,10 +7233,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7243,7 +7247,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>36</v>
@@ -7252,19 +7256,19 @@
         <v>36</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7314,19 +7318,19 @@
         <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>36</v>
@@ -7343,10 +7347,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7357,7 +7361,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>36</v>
@@ -7369,16 +7373,16 @@
         <v>36</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7428,13 +7432,13 @@
         <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>36</v>
@@ -7443,10 +7447,10 @@
         <v>36</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>36</v>
@@ -7457,10 +7461,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7471,7 +7475,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>36</v>
@@ -7480,16 +7484,16 @@
         <v>36</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7540,19 +7544,19 @@
         <v>36</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>36</v>
@@ -7569,10 +7573,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7583,7 +7587,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>36</v>
@@ -7595,13 +7599,13 @@
         <v>36</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7652,13 +7656,13 @@
         <v>36</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>36</v>
@@ -7670,7 +7674,7 @@
         <v>36</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>36</v>
@@ -7681,14 +7685,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7707,16 +7711,16 @@
         <v>36</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7766,7 +7770,7 @@
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
@@ -7778,13 +7782,13 @@
         <v>36</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>36</v>
@@ -7795,14 +7799,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7815,25 +7819,25 @@
         <v>36</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>36</v>
@@ -7882,7 +7886,7 @@
         <v>36</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
@@ -7894,13 +7898,13 @@
         <v>36</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>36</v>
@@ -7911,10 +7915,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7925,7 +7929,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>36</v>
@@ -7934,19 +7938,19 @@
         <v>36</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7972,13 +7976,13 @@
         <v>36</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>36</v>
@@ -7996,19 +8000,19 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>36</v>
@@ -8025,10 +8029,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8039,7 +8043,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>36</v>
@@ -8048,19 +8052,19 @@
         <v>36</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8110,19 +8114,19 @@
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>36</v>
@@ -8139,10 +8143,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8153,7 +8157,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>36</v>
@@ -8162,16 +8166,16 @@
         <v>36</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8222,19 +8226,19 @@
         <v>36</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>36</v>
@@ -8251,10 +8255,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8265,7 +8269,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>36</v>
@@ -8277,13 +8281,13 @@
         <v>36</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8334,13 +8338,13 @@
         <v>36</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>36</v>
@@ -8352,7 +8356,7 @@
         <v>36</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>36</v>
@@ -8363,14 +8367,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8389,16 +8393,16 @@
         <v>36</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8448,7 +8452,7 @@
         <v>36</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
@@ -8460,13 +8464,13 @@
         <v>36</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>36</v>
@@ -8477,14 +8481,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8497,25 +8501,25 @@
         <v>36</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>36</v>
@@ -8564,7 +8568,7 @@
         <v>36</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
@@ -8576,13 +8580,13 @@
         <v>36</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>36</v>
@@ -8593,10 +8597,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8604,10 +8608,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>36</v>
@@ -8616,16 +8620,16 @@
         <v>36</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8652,13 +8656,13 @@
         <v>36</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>36</v>
@@ -8676,19 +8680,19 @@
         <v>36</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>36</v>
@@ -8705,10 +8709,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8716,10 +8720,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>36</v>
@@ -8728,19 +8732,19 @@
         <v>36</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8790,19 +8794,19 @@
         <v>36</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>36</v>
@@ -8819,10 +8823,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8833,7 +8837,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>36</v>
@@ -8842,16 +8846,16 @@
         <v>36</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8902,19 +8906,19 @@
         <v>36</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>36</v>
@@ -8931,10 +8935,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8945,7 +8949,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>36</v>
@@ -8954,16 +8958,16 @@
         <v>36</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9014,19 +9018,19 @@
         <v>36</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>36</v>
@@ -9043,10 +9047,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9057,7 +9061,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>36</v>
@@ -9066,16 +9070,16 @@
         <v>36</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9126,19 +9130,19 @@
         <v>36</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>36</v>
@@ -9155,10 +9159,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9169,7 +9173,7 @@
         <v>37</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>36</v>
@@ -9178,16 +9182,16 @@
         <v>36</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9238,19 +9242,19 @@
         <v>36</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>36</v>
@@ -9267,10 +9271,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9281,7 +9285,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>36</v>
@@ -9290,16 +9294,16 @@
         <v>36</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9350,19 +9354,19 @@
         <v>36</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>36</v>
@@ -9379,10 +9383,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9393,7 +9397,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>36</v>
@@ -9405,13 +9409,13 @@
         <v>36</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9462,13 +9466,13 @@
         <v>36</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>36</v>
@@ -9480,7 +9484,7 @@
         <v>36</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>36</v>
@@ -9491,14 +9495,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9517,16 +9521,16 @@
         <v>36</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9576,7 +9580,7 @@
         <v>36</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
@@ -9588,13 +9592,13 @@
         <v>36</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>36</v>
@@ -9605,14 +9609,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9625,25 +9629,25 @@
         <v>36</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>36</v>
@@ -9692,7 +9696,7 @@
         <v>36</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>37</v>
@@ -9704,13 +9708,13 @@
         <v>36</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>36</v>
@@ -9721,10 +9725,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9732,10 +9736,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>36</v>
@@ -9744,16 +9748,16 @@
         <v>36</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9804,19 +9808,19 @@
         <v>36</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>36</v>
@@ -9833,10 +9837,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9847,7 +9851,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>36</v>
@@ -9856,16 +9860,16 @@
         <v>36</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9916,19 +9920,19 @@
         <v>36</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>36</v>
@@ -9945,10 +9949,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9959,7 +9963,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>36</v>
@@ -9968,19 +9972,19 @@
         <v>36</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10030,19 +10034,19 @@
         <v>36</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>36</v>
@@ -10059,10 +10063,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10073,7 +10077,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>36</v>
@@ -10082,19 +10086,19 @@
         <v>36</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10144,19 +10148,19 @@
         <v>36</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>36</v>
@@ -10173,10 +10177,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10187,7 +10191,7 @@
         <v>37</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>36</v>
@@ -10196,19 +10200,19 @@
         <v>36</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10258,13 +10262,13 @@
         <v>36</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>36</v>
@@ -10287,41 +10291,41 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10372,7 +10376,7 @@
         <v>36</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>37</v>
@@ -10384,7 +10388,7 @@
         <v>36</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>36</v>
@@ -10401,10 +10405,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10415,7 +10419,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>36</v>
@@ -10427,13 +10431,13 @@
         <v>36</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10484,13 +10488,13 @@
         <v>36</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>36</v>
@@ -10502,7 +10506,7 @@
         <v>36</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>36</v>
@@ -10513,14 +10517,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10539,16 +10543,16 @@
         <v>36</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10598,7 +10602,7 @@
         <v>36</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>37</v>
@@ -10610,13 +10614,13 @@
         <v>36</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>36</v>
@@ -10627,14 +10631,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10647,25 +10651,25 @@
         <v>36</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>36</v>
@@ -10714,7 +10718,7 @@
         <v>36</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>37</v>
@@ -10726,13 +10730,13 @@
         <v>36</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>36</v>
@@ -10743,10 +10747,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10766,16 +10770,16 @@
         <v>36</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10826,7 +10830,7 @@
         <v>36</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>37</v>
@@ -10838,7 +10842,7 @@
         <v>36</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>36</v>
@@ -10855,10 +10859,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10869,7 +10873,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>36</v>
@@ -10878,19 +10882,19 @@
         <v>36</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10940,19 +10944,19 @@
         <v>36</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>36</v>
@@ -10969,10 +10973,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10983,7 +10987,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>36</v>
@@ -10992,16 +10996,16 @@
         <v>36</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11052,13 +11056,13 @@
         <v>36</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>36</v>
@@ -11081,10 +11085,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11095,7 +11099,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>36</v>
@@ -11104,16 +11108,16 @@
         <v>36</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11164,19 +11168,19 @@
         <v>36</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>36</v>
@@ -11193,10 +11197,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11207,7 +11211,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>36</v>
@@ -11219,13 +11223,13 @@
         <v>36</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11276,13 +11280,13 @@
         <v>36</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>36</v>
@@ -11294,7 +11298,7 @@
         <v>36</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>36</v>
@@ -11305,14 +11309,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11331,16 +11335,16 @@
         <v>36</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11390,7 +11394,7 @@
         <v>36</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>37</v>
@@ -11402,13 +11406,13 @@
         <v>36</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>36</v>
@@ -11419,14 +11423,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11439,25 +11443,25 @@
         <v>36</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>36</v>
@@ -11506,7 +11510,7 @@
         <v>36</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>37</v>
@@ -11518,13 +11522,13 @@
         <v>36</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>36</v>
@@ -11535,10 +11539,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11549,7 +11553,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>36</v>
@@ -11558,19 +11562,19 @@
         <v>36</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11596,13 +11600,13 @@
         <v>36</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>36</v>
@@ -11620,19 +11624,19 @@
         <v>36</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>36</v>
@@ -11649,10 +11653,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11663,7 +11667,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>36</v>
@@ -11672,19 +11676,19 @@
         <v>36</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11734,19 +11738,19 @@
         <v>36</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>36</v>
@@ -11763,10 +11767,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11777,7 +11781,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>36</v>
@@ -11786,16 +11790,16 @@
         <v>36</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11846,19 +11850,19 @@
         <v>36</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>36</v>
@@ -11875,10 +11879,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11889,7 +11893,7 @@
         <v>37</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>36</v>
@@ -11901,13 +11905,13 @@
         <v>36</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11958,13 +11962,13 @@
         <v>36</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>36</v>
@@ -11976,7 +11980,7 @@
         <v>36</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>36</v>
@@ -11987,14 +11991,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12013,16 +12017,16 @@
         <v>36</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12072,7 +12076,7 @@
         <v>36</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>37</v>
@@ -12084,13 +12088,13 @@
         <v>36</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>36</v>
@@ -12101,14 +12105,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12121,25 +12125,25 @@
         <v>36</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>36</v>
@@ -12188,7 +12192,7 @@
         <v>36</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>37</v>
@@ -12200,13 +12204,13 @@
         <v>36</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>36</v>
@@ -12217,10 +12221,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12228,10 +12232,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>36</v>
@@ -12240,16 +12244,16 @@
         <v>36</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12276,13 +12280,13 @@
         <v>36</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>36</v>
@@ -12300,19 +12304,19 @@
         <v>36</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>36</v>
@@ -12329,10 +12333,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12340,10 +12344,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>36</v>
@@ -12352,19 +12356,19 @@
         <v>36</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12414,19 +12418,19 @@
         <v>36</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>36</v>
@@ -12443,10 +12447,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12457,7 +12461,7 @@
         <v>37</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>36</v>
@@ -12466,16 +12470,16 @@
         <v>36</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12526,19 +12530,19 @@
         <v>36</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>36</v>
@@ -12555,10 +12559,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12569,7 +12573,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>36</v>
@@ -12578,16 +12582,16 @@
         <v>36</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12638,19 +12642,19 @@
         <v>36</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>36</v>
@@ -12667,10 +12671,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12681,7 +12685,7 @@
         <v>37</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>36</v>
@@ -12690,16 +12694,16 @@
         <v>36</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12750,19 +12754,19 @@
         <v>36</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>36</v>
@@ -12779,10 +12783,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12793,7 +12797,7 @@
         <v>37</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>36</v>
@@ -12802,16 +12806,16 @@
         <v>36</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12862,19 +12866,19 @@
         <v>36</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>36</v>
@@ -12891,10 +12895,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12905,7 +12909,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>36</v>
@@ -12914,16 +12918,16 @@
         <v>36</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -12974,19 +12978,19 @@
         <v>36</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>36</v>
@@ -13003,10 +13007,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13017,7 +13021,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>36</v>
@@ -13029,13 +13033,13 @@
         <v>36</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13086,13 +13090,13 @@
         <v>36</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>36</v>
@@ -13104,7 +13108,7 @@
         <v>36</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>36</v>
@@ -13115,14 +13119,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -13141,16 +13145,16 @@
         <v>36</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13200,7 +13204,7 @@
         <v>36</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>37</v>
@@ -13212,13 +13216,13 @@
         <v>36</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>36</v>
@@ -13229,14 +13233,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13249,25 +13253,25 @@
         <v>36</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>36</v>
@@ -13316,7 +13320,7 @@
         <v>36</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>37</v>
@@ -13328,13 +13332,13 @@
         <v>36</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>36</v>
@@ -13345,10 +13349,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13356,10 +13360,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>36</v>
@@ -13368,16 +13372,16 @@
         <v>36</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13428,19 +13432,19 @@
         <v>36</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>36</v>
@@ -13457,10 +13461,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13471,7 +13475,7 @@
         <v>37</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>36</v>
@@ -13480,16 +13484,16 @@
         <v>36</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13540,19 +13544,19 @@
         <v>36</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>36</v>
@@ -13569,10 +13573,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13583,7 +13587,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>36</v>
@@ -13592,19 +13596,19 @@
         <v>36</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13654,19 +13658,19 @@
         <v>36</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>36</v>
@@ -13683,10 +13687,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13697,7 +13701,7 @@
         <v>37</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>36</v>
@@ -13706,19 +13710,19 @@
         <v>36</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13768,19 +13772,19 @@
         <v>36</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>36</v>
@@ -13797,10 +13801,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13811,7 +13815,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>36</v>
@@ -13820,19 +13824,19 @@
         <v>36</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -13882,13 +13886,13 @@
         <v>36</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>36</v>
@@ -13911,10 +13915,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13925,7 +13929,7 @@
         <v>37</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>36</v>
@@ -13934,22 +13938,22 @@
         <v>36</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>36</v>
@@ -13998,19 +14002,19 @@
         <v>36</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>36</v>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-merge-response-bundle.xlsx
+++ b/StructureDefinition-bc-merge-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
